--- a/bill/회계록.xlsx
+++ b/bill/회계록.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학\부트\2019년 부트\졸업작품\boot4dim_graduationproject\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학\부트\2019년 부트\졸업작품\boot4dim_graduationproject\bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35B6D46-814B-4ADD-A969-77A720C9FC22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C2B5C-1B69-4DF5-AC22-E8273B4D0FD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{489C93D6-8AAA-459D-998E-D58B1C0349AA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,30 @@
   </si>
   <si>
     <t>각자 낼 비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍준석 10000원 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민지 10000원 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김용준 10000원 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진시민 10000원 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유재덕 10000원 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트회비 143308원 지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,322 +448,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEE2AA3-4B87-49F4-AB7D-CD59F5E20810}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.296875" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43650</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>143308</v>
-      </c>
       <c r="D2">
-        <f>SUM(C2:C2)</f>
         <v>143308</v>
       </c>
       <c r="E2">
-        <f>D2*0.7</f>
-        <v>100315.59999999999</v>
+        <f>SUM(D2:D2)</f>
+        <v>143308</v>
       </c>
       <c r="F2">
-        <f>(D2-E2)/6</f>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D3">
-        <f>SUM(D2+C3)</f>
-        <v>143308</v>
+        <f>E2*0.7</f>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G2">
+        <f>(E2-F2)/6</f>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="0">D3*0.7</f>
-        <v>100315.59999999999</v>
+        <f>SUM(E2+D3)</f>
+        <v>143308</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F21" si="1">(D3-E3)/6</f>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D4">
-        <f t="shared" ref="D4:D21" si="2">SUM(D3+C4)</f>
-        <v>143308</v>
+        <f t="shared" ref="F3:F21" si="0">E3*0.7</f>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="1">(E3-F3)/6</f>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" ref="E4:E21" si="2">SUM(E3+D4)</f>
+        <v>143308</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>143308</v>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>143308</v>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>143308</v>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>143308</v>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>143308</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>7165.4000000000015</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>143308</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>100315.59999999999</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>7165.4000000000015</v>
       </c>

--- a/bill/회계록.xlsx
+++ b/bill/회계록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학\부트\2019년 부트\졸업작품\boot4dim_graduationproject\bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C2B5C-1B69-4DF5-AC22-E8273B4D0FD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC41272-0F36-4D6B-9EB1-F7C8AA9FD407}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{489C93D6-8AAA-459D-998E-D58B1C0349AA}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -504,6 +504,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>43661</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -521,6 +524,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>43661</v>
+      </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -538,6 +544,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>43661</v>
+      </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -555,6 +564,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>43661</v>
+      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -572,6 +584,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>43661</v>
+      </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -589,6 +604,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>43668</v>
+      </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>

--- a/bill/회계록.xlsx
+++ b/bill/회계록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학\부트\2019년 부트\졸업작품\boot4dim_graduationproject\bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC41272-0F36-4D6B-9EB1-F7C8AA9FD407}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3052FC-BDFC-45C9-8D48-A7279200C1FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{489C93D6-8AAA-459D-998E-D58B1C0349AA}"/>
+    <workbookView xWindow="-7956" yWindow="2556" windowWidth="16404" windowHeight="9420" xr2:uid="{489C93D6-8AAA-459D-998E-D58B1C0349AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,14 @@
   </si>
   <si>
     <t>부트회비 143308원 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 부품 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트회비 정산완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +459,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -624,185 +632,197 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>43682</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>27118</v>
+      </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>143308</v>
+        <v>170426</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>100315.59999999999</v>
+        <v>119298.2</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>7165.4000000000015</v>
+        <v>8521.3000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/bill/회계록.xlsx
+++ b/bill/회계록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학\부트\2019년 부트\졸업작품\boot4dim_graduationproject\bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3052FC-BDFC-45C9-8D48-A7279200C1FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DC2493-8BCD-47A5-97D8-5CAFA9A5830D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7956" yWindow="2556" windowWidth="16404" windowHeight="9420" xr2:uid="{489C93D6-8AAA-459D-998E-D58B1C0349AA}"/>
+    <workbookView xWindow="0" yWindow="2556" windowWidth="16404" windowHeight="9420" xr2:uid="{489C93D6-8AAA-459D-998E-D58B1C0349AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>부트회비 정산완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 부품 구매</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +463,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -672,157 +676,166 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>43696</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>30500</v>
+      </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>170426</v>
+        <v>200926</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>119298.2</v>
+        <v>140648.19999999998</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>8521.3000000000011</v>
+        <v>10046.300000000003</v>
       </c>
     </row>
   </sheetData>

--- a/bill/회계록.xlsx
+++ b/bill/회계록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학\부트\2019년 부트\졸업작품\boot4dim_graduationproject\bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DC2493-8BCD-47A5-97D8-5CAFA9A5830D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A584AAA2-A050-4E1C-A6D7-A8198F341AE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2556" windowWidth="16404" windowHeight="9420" xr2:uid="{489C93D6-8AAA-459D-998E-D58B1C0349AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{489C93D6-8AAA-459D-998E-D58B1C0349AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,42 @@
   </si>
   <si>
     <t>3차 부품 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4차 부품 구매(장갑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5차 부품 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시민이결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시민이 결제한것 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍준석 4000원 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민지 4000원 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김용준 4000원 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진시민 4000원 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유재덕 4000원 지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +499,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -699,148 +735,202 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>43704</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>200926</v>
+        <v>202926</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>140648.19999999998</v>
+        <v>142048.19999999998</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>10046.300000000003</v>
+        <v>10146.300000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>43710</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>74228</v>
+      </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>200926</v>
+        <v>277154</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>140648.19999999998</v>
+        <v>194007.8</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>10046.300000000003</v>
+        <v>13857.700000000003</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>200926</v>
+        <v>277154</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>140648.19999999998</v>
+        <v>194007.8</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>10046.300000000003</v>
+        <v>13857.700000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>43712</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>200926</v>
+        <v>277154</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>140648.19999999998</v>
+        <v>194007.8</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>10046.300000000003</v>
+        <v>13857.700000000003</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>43712</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>200926</v>
+        <v>277154</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>140648.19999999998</v>
+        <v>194007.8</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>10046.300000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.4">
+        <v>13857.700000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>43712</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>200926</v>
+        <v>277154</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>140648.19999999998</v>
+        <v>194007.8</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>10046.300000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
+        <v>13857.700000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>43712</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>200926</v>
+        <v>277154</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>140648.19999999998</v>
+        <v>194007.8</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>10046.300000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
+        <v>13857.700000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>43712</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>200926</v>
+        <v>277154</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>140648.19999999998</v>
+        <v>194007.8</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>10046.300000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
+        <v>13857.700000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>200926</v>
+        <v>277154</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>140648.19999999998</v>
+        <v>194007.8</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>10046.300000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.4">
+        <v>13857.700000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>200926</v>
+        <v>277154</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>140648.19999999998</v>
+        <v>194007.8</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>10046.300000000003</v>
+        <v>13857.700000000003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>